--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>Próximo Rendimento %</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Próxima Cotação base</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Próxima data de pagamento</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,22 +528,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>67,59</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0,4600</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0,6133</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>75,00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0,4600</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0,6133</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
         </is>
       </c>
     </row>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,60 +512,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>HGLG11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>158,05</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10,44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,1000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0,6770</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>162,49</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1,1000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0,6919</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>158,98</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>JSRE11</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>74,03</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>0,66</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>7,78</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0,4600</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0,6806</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>67,59</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>15/05/2023</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>0,4600</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>0,6133</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>75,00</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>15/06/2023</t>
         </is>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -29,18 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -67,13 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -512,37 +505,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HGLG11</t>
+          <t>HGBS11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>158,05</t>
+          <t>205,92</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,1000</t>
+          <t>1,4500</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0,6770</t>
+          <t>0,7287</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>162,49</t>
+          <t>198,98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -552,17 +545,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1,1000</t>
+          <t>1,4500</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0,6919</t>
+          <t>0,6961</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>158,98</t>
+          <t>208,31</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -574,62 +567,62 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JSRE11</t>
+          <t>LVBI11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>74,03</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>0,66</t>
+          <t>111,63</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,4600</t>
+          <t>0,7600</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0,6806</t>
+          <t>0,7423</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>67,59</t>
+          <t>102,39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15/05/2023</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0,4600</t>
+          <t>0,7600</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0,6133</t>
+          <t>0,7206</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>75,00</t>
+          <t>105,47</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15/06/2023</t>
+          <t>07/06/2023</t>
         </is>
       </c>
     </row>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,12 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,124 +512,186 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HGBS11</t>
+          <t>LVBI11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>205,92</t>
+          <t>111,63</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,4500</t>
+          <t>0,7600</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0,7287</t>
+          <t>0,7423</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>198,98</t>
+          <t>102,39</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15/05/2023</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1,4500</t>
+          <t>0,7600</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0,6961</t>
+          <t>0,7206</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>208,31</t>
+          <t>105,47</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15/06/2023</t>
+          <t>07/06/2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LVBI11</t>
+          <t>PLCR11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>111,63</t>
+          <t>84,98</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,7600</t>
+          <t>1,0000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0,7423</t>
+          <t>1,1976</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>102,39</t>
+          <t>83,50</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0,7600</t>
+          <t>1,0000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0,7206</t>
+          <t>1,1812</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>105,47</t>
+          <t>84,66</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HGLG11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>158,15</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10,43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1,1000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0,6770</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>162,49</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1,1000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0,6919</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>158,98</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
         </is>
       </c>
     </row>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,40 +470,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>DY CAGR 5 anos</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Último Rendimento</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Último Rendimento %</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ultima Cotação base</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ultima data de pagamento</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Próximo Rendimento</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Próximo Rendimento %</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Próxima Cotação base</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Próxima data de pagamento</t>
         </is>
@@ -512,74 +517,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LVBI11</t>
+          <t>JSRE11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>111,63</t>
+          <t>75,00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,7600</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0,7423</t>
+          <t>0,4600</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>102,39</t>
+          <t>0,6806</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>67,59</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0,7600</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0,7206</t>
+          <t>0,4600</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>105,47</t>
+          <t>0,6133</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>75,00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PLCR11</t>
+          <t>VILG11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>84,98</t>
+          <t>103,00</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -589,45 +599,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,94</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,0000</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1,1976</t>
+          <t>0,6700</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>83,50</t>
+          <t>0,7106</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>94,28</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>15/05/2023</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1,0000</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1,1812</t>
+          <t>0,7000</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>84,66</t>
+          <t>0,7171</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>97,61</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>15/06/2023</t>
         </is>
@@ -636,60 +651,534 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HGBS11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>205,60</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43,99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1,4500</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0,7287</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>198,98</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1,4500</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0,6961</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>208,31</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PLCR11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>84,97</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14,97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18,67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1,0000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1,1976</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>83,50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1,0000</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,1812</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>84,66</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HGRE11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>133,24</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5,86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0,7800</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0,6166</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>126,51</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0,7800</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0,5896</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>132,29</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSML11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>90,48</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9,26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27,17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,7400</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0,8428</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>87,80</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>07/06/2023</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LVBI11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>111,62</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11,58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0,7600</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0,7206</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>105,47</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>07/06/2023</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KCRE11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>97,75</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11,72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1,0200</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1,1087</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>92,00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12/05/2023</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1,4700</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1,5069</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>97,55</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>14/06/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>URPR11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>94,70</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16,85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-12,24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1,3200</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,4351</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>91,98</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1,3300</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1,3711</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>97,00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>HGLG11</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>158,15</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159,03</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>1,04</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10,43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10,38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13,62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>1,1000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>0,6770</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>162,49</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>15/05/2023</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>1,1000</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>0,6919</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>158,98</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>15/06/2023</t>
         </is>
